--- a/SchedulingData/dynamic9/pso/scheduling1_18.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_18.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,78 +481,78 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>63.6</v>
+        <v>69.88</v>
       </c>
       <c r="E3" t="n">
-        <v>25.84</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>145.3</v>
+        <v>58.6</v>
       </c>
       <c r="E4" t="n">
-        <v>22.24</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>73.92</v>
+        <v>81.78</v>
       </c>
       <c r="E5" t="n">
-        <v>25.268</v>
+        <v>25.952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28</v>
       </c>
       <c r="D6" t="n">
-        <v>57.7</v>
+        <v>106.7</v>
       </c>
       <c r="E6" t="n">
-        <v>25.92</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="7">
@@ -561,74 +561,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57.7</v>
+        <v>69.88</v>
       </c>
       <c r="D7" t="n">
-        <v>119.54</v>
+        <v>114.72</v>
       </c>
       <c r="E7" t="n">
-        <v>22.336</v>
+        <v>22.848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.28</v>
+        <v>114.72</v>
       </c>
       <c r="D8" t="n">
-        <v>106.7</v>
+        <v>172.42</v>
       </c>
       <c r="E8" t="n">
-        <v>22.14</v>
+        <v>19.208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>73.92</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>134.96</v>
+        <v>61.62</v>
       </c>
       <c r="E9" t="n">
-        <v>21.784</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>106.7</v>
       </c>
       <c r="D10" t="n">
-        <v>50.24</v>
+        <v>157.38</v>
       </c>
       <c r="E10" t="n">
-        <v>26.656</v>
+        <v>19.192</v>
       </c>
     </row>
     <row r="11">
@@ -637,207 +637,207 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>157.38</v>
       </c>
       <c r="D11" t="n">
-        <v>77.56</v>
+        <v>207.38</v>
       </c>
       <c r="E11" t="n">
-        <v>27.404</v>
+        <v>15.812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50.24</v>
+        <v>61.62</v>
       </c>
       <c r="D12" t="n">
-        <v>99.72</v>
+        <v>109.42</v>
       </c>
       <c r="E12" t="n">
-        <v>22.848</v>
+        <v>22.868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>99.72</v>
+        <v>172.42</v>
       </c>
       <c r="D13" t="n">
-        <v>150.32</v>
+        <v>245.12</v>
       </c>
       <c r="E13" t="n">
-        <v>18.428</v>
+        <v>15.068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>145.3</v>
+        <v>81.78</v>
       </c>
       <c r="D14" t="n">
-        <v>200.98</v>
+        <v>142.38</v>
       </c>
       <c r="E14" t="n">
-        <v>19.292</v>
+        <v>21.032</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>77.56</v>
+        <v>109.42</v>
       </c>
       <c r="D15" t="n">
-        <v>147.86</v>
+        <v>180.32</v>
       </c>
       <c r="E15" t="n">
-        <v>22.484</v>
+        <v>17.408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>119.54</v>
+        <v>180.32</v>
       </c>
       <c r="D16" t="n">
-        <v>197.14</v>
+        <v>227.68</v>
       </c>
       <c r="E16" t="n">
-        <v>18.196</v>
+        <v>14.812</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>150.32</v>
+        <v>207.38</v>
       </c>
       <c r="D17" t="n">
-        <v>202.44</v>
+        <v>254.18</v>
       </c>
       <c r="E17" t="n">
-        <v>15.836</v>
+        <v>12.772</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>147.86</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>199.74</v>
+        <v>98.92</v>
       </c>
       <c r="E18" t="n">
-        <v>18.436</v>
+        <v>25.268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106.7</v>
+        <v>58.6</v>
       </c>
       <c r="D19" t="n">
-        <v>163.1</v>
+        <v>109.64</v>
       </c>
       <c r="E19" t="n">
-        <v>19.1</v>
+        <v>22.356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>202.44</v>
+        <v>98.92</v>
       </c>
       <c r="D20" t="n">
-        <v>243.42</v>
+        <v>159.32</v>
       </c>
       <c r="E20" t="n">
-        <v>12.868</v>
+        <v>20.848</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>197.14</v>
+        <v>254.18</v>
       </c>
       <c r="D21" t="n">
-        <v>255.04</v>
+        <v>317.76</v>
       </c>
       <c r="E21" t="n">
-        <v>14.536</v>
+        <v>10.044</v>
       </c>
     </row>
     <row r="22">
@@ -846,55 +846,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>200.98</v>
+        <v>227.68</v>
       </c>
       <c r="D22" t="n">
-        <v>254.82</v>
+        <v>319.58</v>
       </c>
       <c r="E22" t="n">
-        <v>15.548</v>
+        <v>10.732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>199.74</v>
+        <v>159.32</v>
       </c>
       <c r="D23" t="n">
-        <v>243.16</v>
+        <v>213.44</v>
       </c>
       <c r="E23" t="n">
-        <v>15.224</v>
+        <v>17.056</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>254.82</v>
+        <v>142.38</v>
       </c>
       <c r="D24" t="n">
-        <v>308.6</v>
+        <v>184.78</v>
       </c>
       <c r="E24" t="n">
-        <v>13.26</v>
+        <v>17.432</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>134.96</v>
+        <v>109.64</v>
       </c>
       <c r="D25" t="n">
-        <v>176.18</v>
+        <v>165.42</v>
       </c>
       <c r="E25" t="n">
-        <v>18.792</v>
+        <v>19.388</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>255.04</v>
+        <v>184.78</v>
       </c>
       <c r="D26" t="n">
-        <v>319.74</v>
+        <v>262.28</v>
       </c>
       <c r="E26" t="n">
-        <v>11.156</v>
+        <v>13.772</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>308.6</v>
+        <v>262.28</v>
       </c>
       <c r="D27" t="n">
-        <v>356.3</v>
+        <v>316.36</v>
       </c>
       <c r="E27" t="n">
-        <v>9.619999999999999</v>
+        <v>11.484</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>176.18</v>
+        <v>213.44</v>
       </c>
       <c r="D28" t="n">
-        <v>242.08</v>
+        <v>266.76</v>
       </c>
       <c r="E28" t="n">
-        <v>13.332</v>
+        <v>13.844</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>242.08</v>
+        <v>165.42</v>
       </c>
       <c r="D29" t="n">
-        <v>291.4</v>
+        <v>224.26</v>
       </c>
       <c r="E29" t="n">
-        <v>9.539999999999999</v>
+        <v>15.644</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>243.42</v>
+        <v>245.12</v>
       </c>
       <c r="D30" t="n">
-        <v>302</v>
+        <v>297.04</v>
       </c>
       <c r="E30" t="n">
-        <v>10.14</v>
+        <v>12.476</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>163.1</v>
+        <v>224.26</v>
       </c>
       <c r="D31" t="n">
-        <v>250.2</v>
+        <v>286.5</v>
       </c>
       <c r="E31" t="n">
-        <v>14.96</v>
+        <v>12.06</v>
       </c>
     </row>
   </sheetData>
